--- a/Sample_Task_name/tasks.xlsx
+++ b/Sample_Task_name/tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Week</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Sample Images/download_figma_and_install.PNG</t>
+  </si>
+  <si>
+    <t>sample task</t>
+  </si>
+  <si>
+    <t>sample task1</t>
   </si>
 </sst>
 </file>
@@ -401,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
@@ -512,6 +518,28 @@
         <v>17</v>
       </c>
     </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sample_Task_name/tasks.xlsx
+++ b/Sample_Task_name/tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Week</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>sample task</t>
-  </si>
-  <si>
-    <t>sample task1</t>
   </si>
 </sst>
 </file>
@@ -407,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -531,13 +528,34 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Sample_Task_name/tasks.xlsx
+++ b/Sample_Task_name/tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Week</t>
   </si>
@@ -72,7 +72,28 @@
     <t>Sample Images/download_figma_and_install.PNG</t>
   </si>
   <si>
-    <t>sample task</t>
+    <t>Fibonacci_Sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculator </t>
+  </si>
+  <si>
+    <t>Tic_Tac_Toe</t>
+  </si>
+  <si>
+    <t>Generative AI</t>
+  </si>
+  <si>
+    <t>Sample Images/calc.png</t>
+  </si>
+  <si>
+    <t>Sample Images/Tic-tac-toe-3102133876.png</t>
+  </si>
+  <si>
+    <t>Sample Images/generative_ai.jpeg</t>
+  </si>
+  <si>
+    <t>Sample Images/Fibonacci_Sequence.png</t>
   </si>
 </sst>
 </file>
@@ -404,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -523,7 +544,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -531,7 +552,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -539,7 +563,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -547,15 +574,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Sample_Task_name/tasks.xlsx
+++ b/Sample_Task_name/tasks.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Task_Reportss\StudentsReport\Sample_Task_name\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Week</t>
   </si>
@@ -94,13 +99,37 @@
   </si>
   <si>
     <t>Sample Images/Fibonacci_Sequence.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error messages_200 OK_404 Not Found </t>
+  </si>
+  <si>
+    <t>Google Chrome Extensions</t>
+  </si>
+  <si>
+    <t>Tweet_AI tool_Futurepedia</t>
+  </si>
+  <si>
+    <t>Download_Install_ Google Chrome Canary Version</t>
+  </si>
+  <si>
+    <t>Sample Images/Error messages_200 OK_404 Not Found.png</t>
+  </si>
+  <si>
+    <t>Sample Images/Google Chrome Extensions.png</t>
+  </si>
+  <si>
+    <t>Sample Images/Tweet_AI tool_Futurepedia.png</t>
+  </si>
+  <si>
+    <t>Sample Images/Download_Install_ Google Chrome Canary Version</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +166,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -183,7 +220,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -215,9 +252,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,6 +287,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -424,20 +463,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="C14" sqref="C14:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,7 +487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -459,7 +498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -470,7 +509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -481,7 +520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -492,7 +531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -503,7 +542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -514,7 +553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -525,7 +564,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -536,7 +575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -547,7 +586,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -558,7 +597,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -569,7 +608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -578,6 +617,50 @@
       </c>
       <c r="C13" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -586,24 +669,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sample_Task_name/tasks.xlsx
+++ b/Sample_Task_name/tasks.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Task_Reportss\StudentsReport\Sample_Task_name\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karanchandru/Desktop/StudentsReport/Sample_Task_name/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CEF586-478C-0A42-B632-CAA19ECB18E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22980" windowHeight="9560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Week</t>
   </si>
@@ -123,12 +124,24 @@
   </si>
   <si>
     <t>Sample Images/Download_Install_ Google Chrome Canary Version</t>
+  </si>
+  <si>
+    <t>Create Framer Site</t>
+  </si>
+  <si>
+    <t>Create a Project on Flutterflow</t>
+  </si>
+  <si>
+    <t>Create Paper Prototype</t>
+  </si>
+  <si>
+    <t>Create Social Media Profile Using CSS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -253,6 +266,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -288,6 +318,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -463,20 +510,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -498,7 +545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -509,7 +556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -520,7 +567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -531,7 +578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -542,7 +589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -553,7 +600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -564,7 +611,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -575,7 +622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -586,7 +633,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -597,7 +644,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -608,7 +655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -619,7 +666,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4</v>
       </c>
@@ -630,7 +677,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4</v>
       </c>
@@ -641,7 +688,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -652,7 +699,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -663,30 +710,63 @@
         <v>33</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sample_Task_name/tasks.xlsx
+++ b/Sample_Task_name/tasks.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Task_Reportss\StudentsReport\Sample_Task_name\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karanchandru/Desktop/StudentsReport-1/Sample_Task_name/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223BE5D2-81E8-BB41-BB29-44695ED506B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22980" windowHeight="9560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Week</t>
   </si>
@@ -123,12 +124,24 @@
   </si>
   <si>
     <t>Sample Images/Download_Install_ Google Chrome Canary Version</t>
+  </si>
+  <si>
+    <t>Create Framer Site</t>
+  </si>
+  <si>
+    <t>Create a Project on Flutterflow</t>
+  </si>
+  <si>
+    <t>Create Paper Prototype</t>
+  </si>
+  <si>
+    <t>Create Social Media Profile Using CSS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -253,6 +266,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -288,6 +318,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -463,20 +510,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -498,7 +545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -509,7 +556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -520,7 +567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -531,7 +578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -542,7 +589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -553,7 +600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -564,7 +611,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -575,7 +622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -586,7 +633,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -597,7 +644,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -608,7 +655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -619,7 +666,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4</v>
       </c>
@@ -630,7 +677,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4</v>
       </c>
@@ -641,7 +688,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -652,7 +699,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -661,6 +708,38 @@
       </c>
       <c r="C17" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -669,24 +748,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sample_Task_name/tasks.xlsx
+++ b/Sample_Task_name/tasks.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karanchandru/Desktop/StudentsReport-1/Sample_Task_name/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\StudentsReport\Sample_Task_name\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223BE5D2-81E8-BB41-BB29-44695ED506B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22980" windowHeight="9560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="22980" windowHeight="9564"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Week</t>
   </si>
@@ -136,16 +135,69 @@
   </si>
   <si>
     <t>Create Social Media Profile Using CSS</t>
+  </si>
+  <si>
+    <t>summary of Fermi's paradox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">summary of Drake's Equation 
+</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Create a table  using CSS Grid</t>
+    </r>
+  </si>
+  <si>
+    <t>create small project using CSS Flexbox</t>
+  </si>
+  <si>
+    <t>create small project using CSS box sizing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create small project using  CSS Box Shadow
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create small project ussing CSS Border Radius 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create small project using CSS Justify content
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -171,8 +223,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -266,23 +331,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -318,23 +366,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -510,20 +541,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1"/>
+    <col min="3" max="3" width="50.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -534,7 +565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -545,7 +576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -556,7 +587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -567,7 +598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -578,7 +609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -589,7 +620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -600,7 +631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -611,7 +642,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -622,7 +653,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -633,7 +664,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -644,7 +675,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -655,7 +686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -666,7 +697,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4</v>
       </c>
@@ -677,7 +708,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -688,7 +719,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4</v>
       </c>
@@ -699,7 +730,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -710,7 +741,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>
@@ -718,7 +749,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5</v>
       </c>
@@ -726,7 +757,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5</v>
       </c>
@@ -734,7 +765,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5</v>
       </c>
@@ -742,30 +773,95 @@
         <v>37</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sample_Task_name/tasks.xlsx
+++ b/Sample_Task_name/tasks.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\StudentsReport\Sample_Task_name\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="456" windowWidth="22980" windowHeight="9564"/>
   </bookViews>
@@ -180,20 +175,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -223,18 +212,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -298,7 +278,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,10 +310,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -365,7 +344,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -541,20 +519,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="42.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -565,7 +543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -576,7 +554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -587,7 +565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -598,7 +576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -609,7 +587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -620,7 +598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -631,7 +609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -642,7 +620,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -653,7 +631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -664,7 +642,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -675,7 +653,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -686,7 +664,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -697,7 +675,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>4</v>
       </c>
@@ -708,7 +686,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -719,7 +697,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>4</v>
       </c>
@@ -730,7 +708,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -741,7 +719,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>5</v>
       </c>
@@ -749,7 +727,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>5</v>
       </c>
@@ -757,7 +735,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>5</v>
       </c>
@@ -765,7 +743,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>5</v>
       </c>
@@ -773,7 +751,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>6</v>
       </c>
@@ -781,23 +759,23 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="15" customHeight="1">
       <c r="A23">
         <v>6</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>6</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>6</v>
       </c>
@@ -805,35 +783,35 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>7</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="13.8" customHeight="1">
       <c r="A27">
         <v>7</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="18.600000000000001" customHeight="1">
       <c r="A28">
         <v>7</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="16.2" customHeight="1">
       <c r="A29">
         <v>7</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" t="s">
         <v>45</v>
       </c>
     </row>
@@ -844,24 +822,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sample_Task_name/tasks.xlsx
+++ b/Sample_Task_name/tasks.xlsx
@@ -135,41 +135,25 @@
     <t>summary of Fermi's paradox</t>
   </si>
   <si>
-    <t xml:space="preserve">summary of Drake's Equation 
-</t>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Create a table  using CSS Grid</t>
-    </r>
-  </si>
-  <si>
     <t>create small project using CSS Flexbox</t>
   </si>
   <si>
     <t>create small project using CSS box sizing</t>
   </si>
   <si>
-    <t xml:space="preserve">create small project using  CSS Box Shadow
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">create small project ussing CSS Border Radius 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">create small project using CSS Justify content
-</t>
+    <t xml:space="preserve">summary of Drake's Equation </t>
+  </si>
+  <si>
+    <t>Create a table  using CSS Grid</t>
+  </si>
+  <si>
+    <t>create small project using  CSS Box Shadow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create small project ussing CSS Border Radius </t>
+  </si>
+  <si>
+    <t>create small project using CSS Justify content</t>
   </si>
 </sst>
 </file>
@@ -523,7 +507,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -764,7 +748,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -772,7 +756,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -780,7 +764,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -788,7 +772,7 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="13.8" customHeight="1">

--- a/Sample_Task_name/tasks.xlsx
+++ b/Sample_Task_name/tasks.xlsx
@@ -132,18 +132,12 @@
     <t>Create Social Media Profile Using CSS</t>
   </si>
   <si>
-    <t>summary of Fermi's paradox</t>
-  </si>
-  <si>
     <t>create small project using CSS Flexbox</t>
   </si>
   <si>
     <t>create small project using CSS box sizing</t>
   </si>
   <si>
-    <t xml:space="preserve">summary of Drake's Equation </t>
-  </si>
-  <si>
     <t>Create a table  using CSS Grid</t>
   </si>
   <si>
@@ -154,6 +148,12 @@
   </si>
   <si>
     <t>create small project using CSS Justify content</t>
+  </si>
+  <si>
+    <t>summary of Fermis paradox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">summary of Drakes Equation </t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -740,7 +740,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1">
@@ -748,7 +748,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -756,7 +756,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -764,7 +764,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -772,7 +772,7 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="13.8" customHeight="1">
@@ -780,7 +780,7 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.600000000000001" customHeight="1">
@@ -788,7 +788,7 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.2" customHeight="1">
@@ -796,7 +796,7 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Sample_Task_name/tasks.xlsx
+++ b/Sample_Task_name/tasks.xlsx
@@ -123,9 +123,6 @@
     <t>Create Framer Site</t>
   </si>
   <si>
-    <t>Create a Project on Flutterflow</t>
-  </si>
-  <si>
     <t>Create Paper Prototype</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>Create a table  using CSS Grid</t>
   </si>
   <si>
-    <t>create small project using  CSS Box Shadow</t>
-  </si>
-  <si>
     <t xml:space="preserve">create small project ussing CSS Border Radius </t>
   </si>
   <si>
@@ -154,6 +148,12 @@
   </si>
   <si>
     <t xml:space="preserve">summary of Drakes Equation </t>
+  </si>
+  <si>
+    <t>Create A Snake Game</t>
+  </si>
+  <si>
+    <t>create small project using CSS Box Shadow</t>
   </si>
 </sst>
 </file>
@@ -506,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -716,7 +716,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -724,7 +724,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -732,7 +732,7 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -740,7 +740,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1">
@@ -748,7 +748,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -756,7 +756,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -764,7 +764,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -772,7 +772,7 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="13.8" customHeight="1">
@@ -780,7 +780,7 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.600000000000001" customHeight="1">
@@ -788,7 +788,7 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.2" customHeight="1">
@@ -796,7 +796,7 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Sample_Task_name/tasks.xlsx
+++ b/Sample_Task_name/tasks.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karanchandru/Desktop/StudentsReport/Sample_Task_name/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B645792-2997-D74A-93FD-120B38D41A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="22980" windowHeight="9564"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22980" windowHeight="9560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Week</t>
   </si>
@@ -154,13 +160,25 @@
   </si>
   <si>
     <t>create small project using CSS Box Shadow</t>
+  </si>
+  <si>
+    <t>Learn prompt Engineering</t>
+  </si>
+  <si>
+    <t>Create sidebar</t>
+  </si>
+  <si>
+    <t>Dig Hugging Face</t>
+  </si>
+  <si>
+    <t>Learn Javascript</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,7 +280,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,9 +312,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -328,6 +364,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -503,20 +557,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="42.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -527,7 +581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -538,7 +592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -549,7 +603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -560,7 +614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -571,7 +625,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -582,7 +636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -593,7 +647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -604,7 +658,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -615,7 +669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -626,7 +680,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -637,7 +691,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -648,7 +702,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -659,7 +713,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4</v>
       </c>
@@ -670,7 +724,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4</v>
       </c>
@@ -681,7 +735,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -692,7 +746,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -703,7 +757,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5</v>
       </c>
@@ -711,7 +765,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5</v>
       </c>
@@ -719,7 +773,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5</v>
       </c>
@@ -727,7 +781,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
@@ -735,7 +789,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -743,7 +797,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6</v>
       </c>
@@ -751,7 +805,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -759,7 +813,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -767,7 +821,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>7</v>
       </c>
@@ -775,7 +829,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="13.8" customHeight="1">
+    <row r="27" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>7</v>
       </c>
@@ -783,7 +837,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18.600000000000001" customHeight="1">
+    <row r="28" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>7</v>
       </c>
@@ -791,12 +845,44 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16.2" customHeight="1">
+    <row r="29" spans="1:3" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>7</v>
       </c>
       <c r="B29" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -806,24 +892,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sample_Task_name/tasks.xlsx
+++ b/Sample_Task_name/tasks.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karanchandru/Desktop/StudentsReport/Sample_Task_name/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\StudentsReport\Sample_Task_name\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B645792-2997-D74A-93FD-120B38D41A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22980" windowHeight="9560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="22980" windowHeight="9564"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>Week</t>
   </si>
@@ -172,12 +171,24 @@
   </si>
   <si>
     <t>Learn Javascript</t>
+  </si>
+  <si>
+    <t>create a login form for Restaurent booking</t>
+  </si>
+  <si>
+    <t>create a Menu bar like github UI with Mobile optimization.</t>
+  </si>
+  <si>
+    <t>create a Google Adsense</t>
+  </si>
+  <si>
+    <t>create a Menu bar like github UI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -313,23 +324,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -365,23 +359,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -557,20 +534,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="42.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.77734375" customWidth="1"/>
+    <col min="3" max="3" width="50.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -581,7 +558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -592,7 +569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -603,7 +580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -614,7 +591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -625,7 +602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -636,7 +613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -647,7 +624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -658,7 +635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -669,7 +646,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -680,7 +657,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -691,7 +668,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -702,7 +679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -713,7 +690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4</v>
       </c>
@@ -724,7 +701,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -735,7 +712,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4</v>
       </c>
@@ -746,7 +723,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -757,7 +734,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>
@@ -765,7 +742,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5</v>
       </c>
@@ -773,7 +750,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5</v>
       </c>
@@ -781,7 +758,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5</v>
       </c>
@@ -789,7 +766,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>6</v>
       </c>
@@ -797,7 +774,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>6</v>
       </c>
@@ -805,7 +782,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>6</v>
       </c>
@@ -813,7 +790,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>6</v>
       </c>
@@ -821,7 +798,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>7</v>
       </c>
@@ -829,7 +806,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>7</v>
       </c>
@@ -837,7 +814,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>7</v>
       </c>
@@ -845,7 +822,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>7</v>
       </c>
@@ -853,7 +830,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>8</v>
       </c>
@@ -861,7 +838,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>8</v>
       </c>
@@ -869,7 +846,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>8</v>
       </c>
@@ -877,12 +854,44 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>8</v>
       </c>
       <c r="B33" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -892,24 +901,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sample_Task_name/tasks.xlsx
+++ b/Sample_Task_name/tasks.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>Week</t>
   </si>
@@ -183,6 +183,18 @@
   </si>
   <si>
     <t>create a Menu bar like github UI</t>
+  </si>
+  <si>
+    <t>Do Git CherryPicking</t>
+  </si>
+  <si>
+    <t>Create a summary report of Javascript V8 Engine</t>
+  </si>
+  <si>
+    <t>Create an Account in Twitch</t>
+  </si>
+  <si>
+    <t>Create your first React app</t>
   </si>
 </sst>
 </file>
@@ -225,11 +237,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -892,6 +907,38 @@
       </c>
       <c r="B37" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>10</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
